--- a/output/targets_train.xlsx
+++ b/output/targets_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B411"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,31 +447,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>162.65</v>
+        <v>77</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>146.72</v>
+        <v>598.4</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>46.2</v>
+        <v>110.03</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>138.3</v>
+        <v>420.59</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>75.91</v>
+        <v>105.24</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>28.28</v>
+        <v>216.32</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>277.46</v>
+        <v>553.42</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79.03</v>
+        <v>454.56</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -511,31 +511,31 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>178.12</v>
+        <v>30.8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>215.57</v>
+        <v>436.76</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>128.27</v>
+        <v>350.03</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>124.44</v>
+        <v>149.24</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -543,39 +543,39 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>85.98999999999999</v>
+        <v>246.36</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>177.72</v>
+        <v>201.71</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>124.9</v>
+        <v>441.01</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>513.63</v>
+        <v>44.96</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>85.53</v>
+        <v>35.54</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>191.63</v>
+        <v>911.99</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -591,15 +591,15 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43.22</v>
+        <v>245</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>216.57</v>
+        <v>190.42</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>143.19</v>
+        <v>299.58</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -615,23 +615,23 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>191.65</v>
+        <v>348.92</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>581.02</v>
+        <v>361.73</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>409</v>
+        <v>165.17</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>379.6</v>
+        <v>54.94</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -647,15 +647,15 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>33.47</v>
+        <v>217.68</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>434</v>
+        <v>94.25</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>171.21</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -671,15 +671,15 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>210.53</v>
+        <v>119.84</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>218.14</v>
+        <v>124.49</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>195.2</v>
+        <v>119</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -695,15 +695,15 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>122.48</v>
+        <v>139.97</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>79.89</v>
+        <v>248.88</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>294.25</v>
+        <v>167.54</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>243.03</v>
+        <v>56</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -727,39 +727,39 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>171.26</v>
+        <v>246.21</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>278.6</v>
+        <v>349.25</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>125.05</v>
+        <v>166.53</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>262.54</v>
+        <v>443.07</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>220.91</v>
+        <v>158.36</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -767,15 +767,15 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>66.98999999999999</v>
+        <v>252.86</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>61.04</v>
+        <v>160.98</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>169.35</v>
+        <v>142.84</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>102.72</v>
+        <v>404.8</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>239.76</v>
+        <v>237.24</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -807,23 +807,23 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>87.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>297.49</v>
+        <v>617.91</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>517.97</v>
+        <v>271.91</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>484.4</v>
+        <v>469.23</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>72.68000000000001</v>
+        <v>545.86</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -847,15 +847,15 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>30.17</v>
+        <v>182</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>77</v>
+        <v>121.42</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>598.4</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>110.03</v>
+        <v>432.17</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>420.59</v>
+        <v>206.6</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>105.24</v>
+        <v>185.18</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>216.32</v>
+        <v>246.36</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -903,15 +903,15 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>553.42</v>
+        <v>165.87</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>454.56</v>
+        <v>291.22</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -919,23 +919,23 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>30.8</v>
+        <v>349.98</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>436.76</v>
+        <v>179.48</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>350.03</v>
+        <v>42.31</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>149.24</v>
+        <v>117.82</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -951,23 +951,23 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>246.36</v>
+        <v>216.78</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>201.71</v>
+        <v>160.98</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>441.01</v>
+        <v>273.53</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>44.96</v>
+        <v>82.66</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>35.54</v>
+        <v>578.95</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -991,15 +991,15 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>911.99</v>
+        <v>685.95</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>245</v>
+        <v>126.56</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1007,15 +1007,15 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>190.42</v>
+        <v>157.35</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>299.58</v>
+        <v>176.3</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>348.92</v>
+        <v>332.09</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1031,15 +1031,15 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>361.73</v>
+        <v>236.99</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>165.17</v>
+        <v>198.03</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>54.94</v>
+        <v>128.73</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>217.68</v>
+        <v>184.52</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>94.25</v>
+        <v>52.72</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>77.56999999999999</v>
+        <v>742.45</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>119.84</v>
+        <v>435.97</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>124.49</v>
+        <v>296.26</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
@@ -1103,15 +1103,15 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>139.97</v>
+        <v>64</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>248.88</v>
+        <v>392.02</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>167.54</v>
+        <v>203.57</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>56</v>
+        <v>89.92</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>246.21</v>
+        <v>246.26</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -1143,23 +1143,23 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>349.25</v>
+        <v>184.28</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>166.53</v>
+        <v>223.78</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>443.07</v>
+        <v>260.42</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>158.36</v>
+        <v>187.04</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -1175,15 +1175,15 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>252.86</v>
+        <v>127.42</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>160.98</v>
+        <v>144.12</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1191,15 +1191,15 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>142.84</v>
+        <v>210.12</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>404.8</v>
+        <v>151.76</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1207,31 +1207,31 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>237.24</v>
+        <v>252.56</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>93.8</v>
+        <v>130.64</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>617.91</v>
+        <v>132.31</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>271.91</v>
+        <v>186.03</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1239,15 +1239,15 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>469.23</v>
+        <v>600</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>545.86</v>
+        <v>271.06</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>182</v>
+        <v>853.98</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -1263,15 +1263,15 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>121.42</v>
+        <v>162.14</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>91.68000000000001</v>
+        <v>165.67</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>432.17</v>
+        <v>89.56999999999999</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>206.6</v>
+        <v>191.32</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>185.18</v>
+        <v>177.62</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -1303,23 +1303,23 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>246.36</v>
+        <v>193.74</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>165.87</v>
+        <v>322.46</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>291.22</v>
+        <v>329.47</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>349.98</v>
+        <v>289.96</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>179.48</v>
+        <v>161.44</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>42.31</v>
+        <v>49.85</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>117.82</v>
+        <v>126.56</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>216.78</v>
+        <v>360.3</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>160.98</v>
+        <v>220</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -1375,23 +1375,23 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>273.53</v>
+        <v>139.97</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>82.66</v>
+        <v>174.09</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>578.95</v>
+        <v>190.42</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -1399,23 +1399,23 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>685.95</v>
+        <v>312.18</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>126.56</v>
+        <v>21.48</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>157.35</v>
+        <v>178.93</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -1423,31 +1423,31 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>176.3</v>
+        <v>241.32</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>332.09</v>
+        <v>234.06</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>236.99</v>
+        <v>177.82</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>198.03</v>
+        <v>125.3</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>128.73</v>
+        <v>110.41</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>184.52</v>
+        <v>213.75</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -1471,15 +1471,15 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>52.72</v>
+        <v>169.4</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>742.45</v>
+        <v>85.38</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>435.97</v>
+        <v>176.71</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>296.26</v>
+        <v>93.5</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>56</v>
+        <v>82.04000000000001</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>64</v>
+        <v>237.39</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>392.02</v>
+        <v>120.29</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -1527,23 +1527,23 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>203.57</v>
+        <v>449</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>89.92</v>
+        <v>111.44</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>246.26</v>
+        <v>139.97</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -1551,15 +1551,15 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>184.28</v>
+        <v>845.52</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>223.78</v>
+        <v>152.47</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
@@ -1567,23 +1567,23 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>260.42</v>
+        <v>102.27</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>187.04</v>
+        <v>581.2</v>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>127.42</v>
+        <v>179.83</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -1591,15 +1591,15 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>144.12</v>
+        <v>287.08</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>210.12</v>
+        <v>67.44</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>151.76</v>
+        <v>167.08</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>252.56</v>
+        <v>259.62</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>130.64</v>
+        <v>458.65</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>132.31</v>
+        <v>243.29</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>186.03</v>
+        <v>176.2</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>600</v>
+        <v>170.16</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
@@ -1655,23 +1655,23 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>271.06</v>
+        <v>81.86</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>853.98</v>
+        <v>214.71</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>162.14</v>
+        <v>182</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>165.67</v>
+        <v>265.97</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>89.56999999999999</v>
+        <v>622.8</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>191.32</v>
+        <v>168.24</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>177.62</v>
+        <v>332.04</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>193.74</v>
+        <v>117.64</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -1719,15 +1719,15 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>322.46</v>
+        <v>243.29</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>329.47</v>
+        <v>242.18</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>289.96</v>
+        <v>310.12</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
@@ -1743,15 +1743,15 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>161.44</v>
+        <v>302.1</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>49.85</v>
+        <v>125.3</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>126.56</v>
+        <v>184.62</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>360.3</v>
+        <v>276.5</v>
       </c>
       <c r="B167" t="n">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>220</v>
+        <v>57.23</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -1783,15 +1783,15 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>139.97</v>
+        <v>310.52</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>174.09</v>
+        <v>164.94</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>190.42</v>
+        <v>223.98</v>
       </c>
       <c r="B171" t="n">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>312.18</v>
+        <v>220.4</v>
       </c>
       <c r="B172" t="n">
         <v>1</v>
@@ -1815,15 +1815,15 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>21.48</v>
+        <v>115.32</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>178.93</v>
+        <v>329.82</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
@@ -1831,39 +1831,39 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>241.32</v>
+        <v>168.04</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>234.06</v>
+        <v>105.14</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>177.82</v>
+        <v>234.67</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>125.3</v>
+        <v>128.05</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>110.41</v>
+        <v>120.26</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
@@ -1871,15 +1871,15 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>213.75</v>
+        <v>364.65</v>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>169.4</v>
+        <v>151.91</v>
       </c>
       <c r="B181" t="n">
         <v>1</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>85.38</v>
+        <v>292.88</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>176.71</v>
+        <v>471.8</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -1903,15 +1903,15 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>93.5</v>
+        <v>373.47</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>82.04000000000001</v>
+        <v>151.46</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>237.39</v>
+        <v>54.71</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -1927,23 +1927,23 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>120.29</v>
+        <v>109.63</v>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>449</v>
+        <v>41.54</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>111.44</v>
+        <v>182</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -1951,23 +1951,23 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>139.97</v>
+        <v>318.58</v>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>845.52</v>
+        <v>289.1</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>152.47</v>
+        <v>229.28</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -1975,23 +1975,23 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>102.27</v>
+        <v>226.28</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>581.2</v>
+        <v>191.63</v>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>179.83</v>
+        <v>257.9</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>287.08</v>
+        <v>271.86</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>67.44</v>
+        <v>450.18</v>
       </c>
       <c r="B197" t="n">
         <v>0</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>167.08</v>
+        <v>217.43</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>259.62</v>
+        <v>21.17</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>458.65</v>
+        <v>122.12</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>243.29</v>
+        <v>111.99</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
@@ -2047,31 +2047,31 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>176.2</v>
+        <v>120.36</v>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>170.16</v>
+        <v>450.8</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>81.86</v>
+        <v>41.94</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>214.71</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
@@ -2079,15 +2079,15 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>182</v>
+        <v>281.09</v>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>265.97</v>
+        <v>207.45</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>622.8</v>
+        <v>237.19</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>168.24</v>
+        <v>410.72</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>332.04</v>
+        <v>679.95</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>117.64</v>
+        <v>159.17</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>243.29</v>
+        <v>110.84</v>
       </c>
       <c r="B212" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>242.18</v>
+        <v>119</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>310.12</v>
+        <v>184.52</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
@@ -2151,15 +2151,15 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>302.1</v>
+        <v>270.7</v>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>125.3</v>
+        <v>80.33</v>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -2167,15 +2167,15 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>184.62</v>
+        <v>777.53</v>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>276.5</v>
+        <v>419.03</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -2183,23 +2183,23 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>57.23</v>
+        <v>45.92</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>310.52</v>
+        <v>305.03</v>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>164.94</v>
+        <v>220.84</v>
       </c>
       <c r="B221" t="n">
         <v>1</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>223.98</v>
+        <v>148.74</v>
       </c>
       <c r="B222" t="n">
         <v>1</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>220.4</v>
+        <v>556</v>
       </c>
       <c r="B223" t="n">
         <v>1</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>115.32</v>
+        <v>204.68</v>
       </c>
       <c r="B224" t="n">
         <v>1</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>329.82</v>
+        <v>419</v>
       </c>
       <c r="B225" t="n">
         <v>0</v>
@@ -2239,15 +2239,15 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>168.04</v>
+        <v>217.48</v>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>105.14</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="B227" t="n">
         <v>1</v>
@@ -2255,31 +2255,31 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>234.67</v>
+        <v>286.98</v>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>128.05</v>
+        <v>691.75</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>120.26</v>
+        <v>257.6</v>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>364.65</v>
+        <v>223.38</v>
       </c>
       <c r="B231" t="n">
         <v>1</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>151.91</v>
+        <v>171.97</v>
       </c>
       <c r="B232" t="n">
         <v>1</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>292.88</v>
+        <v>411.82</v>
       </c>
       <c r="B233" t="n">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>471.8</v>
+        <v>91.70999999999999</v>
       </c>
       <c r="B234" t="n">
         <v>1</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>373.47</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="B235" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>151.46</v>
+        <v>225.24</v>
       </c>
       <c r="B236" t="n">
         <v>1</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>54.71</v>
+        <v>324.28</v>
       </c>
       <c r="B237" t="n">
         <v>1</v>
@@ -2335,15 +2335,15 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>109.63</v>
+        <v>186.69</v>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>41.54</v>
+        <v>56.98</v>
       </c>
       <c r="B239" t="n">
         <v>1</v>
@@ -2351,31 +2351,31 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>182</v>
+        <v>202.06</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>318.58</v>
+        <v>119</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>289.1</v>
+        <v>534.8</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>229.28</v>
+        <v>179.03</v>
       </c>
       <c r="B243" t="n">
         <v>1</v>
@@ -2383,15 +2383,15 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>226.28</v>
+        <v>179.23</v>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>191.63</v>
+        <v>56.35</v>
       </c>
       <c r="B245" t="n">
         <v>1</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>257.9</v>
+        <v>182</v>
       </c>
       <c r="B246" t="n">
         <v>1</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>271.86</v>
+        <v>39.12</v>
       </c>
       <c r="B247" t="n">
         <v>1</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>450.18</v>
+        <v>719.74</v>
       </c>
       <c r="B248" t="n">
         <v>0</v>
@@ -2423,15 +2423,15 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>217.43</v>
+        <v>72.8</v>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>21.17</v>
+        <v>267.68</v>
       </c>
       <c r="B250" t="n">
         <v>1</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>122.12</v>
+        <v>128.88</v>
       </c>
       <c r="B251" t="n">
         <v>1</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>111.99</v>
+        <v>218.59</v>
       </c>
       <c r="B252" t="n">
         <v>1</v>
@@ -2455,31 +2455,31 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>120.36</v>
+        <v>387.96</v>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>450.8</v>
+        <v>257.6</v>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>41.94</v>
+        <v>273.83</v>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>89.20999999999999</v>
+        <v>23.64</v>
       </c>
       <c r="B256" t="n">
         <v>1</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>281.09</v>
+        <v>427.04</v>
       </c>
       <c r="B257" t="n">
         <v>1</v>
@@ -2495,15 +2495,15 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>207.45</v>
+        <v>588.64</v>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>237.19</v>
+        <v>206.75</v>
       </c>
       <c r="B259" t="n">
         <v>1</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>410.72</v>
+        <v>123.18</v>
       </c>
       <c r="B260" t="n">
         <v>1</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>679.95</v>
+        <v>135.73</v>
       </c>
       <c r="B261" t="n">
         <v>1</v>
@@ -2527,15 +2527,15 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>159.17</v>
+        <v>111.31</v>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>110.84</v>
+        <v>38.75</v>
       </c>
       <c r="B263" t="n">
         <v>0</v>
@@ -2543,15 +2543,15 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>119</v>
+        <v>407.84</v>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>184.52</v>
+        <v>160.18</v>
       </c>
       <c r="B265" t="n">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>270.7</v>
+        <v>194.65</v>
       </c>
       <c r="B266" t="n">
         <v>1</v>
@@ -2567,23 +2567,23 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>80.33</v>
+        <v>212.95</v>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>777.53</v>
+        <v>160.98</v>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>419.03</v>
+        <v>197.12</v>
       </c>
       <c r="B269" t="n">
         <v>1</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>45.92</v>
+        <v>114.06</v>
       </c>
       <c r="B270" t="n">
         <v>1</v>
@@ -2599,15 +2599,15 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>305.03</v>
+        <v>206.8</v>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>220.84</v>
+        <v>165.07</v>
       </c>
       <c r="B272" t="n">
         <v>1</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>148.74</v>
+        <v>229.12</v>
       </c>
       <c r="B273" t="n">
         <v>1</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>556</v>
+        <v>149.44</v>
       </c>
       <c r="B274" t="n">
         <v>1</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>204.68</v>
+        <v>287.84</v>
       </c>
       <c r="B275" t="n">
         <v>1</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>419</v>
+        <v>391.97</v>
       </c>
       <c r="B276" t="n">
         <v>0</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>217.48</v>
+        <v>97.08</v>
       </c>
       <c r="B277" t="n">
         <v>1</v>
@@ -2655,15 +2655,15 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>79.09999999999999</v>
+        <v>434</v>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>286.98</v>
+        <v>36.43</v>
       </c>
       <c r="B279" t="n">
         <v>1</v>
@@ -2671,31 +2671,31 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>691.75</v>
+        <v>291.95</v>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>257.6</v>
+        <v>112.7</v>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>223.38</v>
+        <v>143.39</v>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>171.97</v>
+        <v>208.66</v>
       </c>
       <c r="B283" t="n">
         <v>1</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>411.82</v>
+        <v>166.38</v>
       </c>
       <c r="B284" t="n">
         <v>1</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>91.70999999999999</v>
+        <v>369.69</v>
       </c>
       <c r="B285" t="n">
         <v>1</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>96.31999999999999</v>
+        <v>89.62</v>
       </c>
       <c r="B286" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>225.24</v>
+        <v>475.28</v>
       </c>
       <c r="B287" t="n">
         <v>1</v>
@@ -2735,31 +2735,31 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>324.28</v>
+        <v>358.4</v>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>186.69</v>
+        <v>106.9</v>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>56.98</v>
+        <v>243.56</v>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>202.06</v>
+        <v>164.46</v>
       </c>
       <c r="B291" t="n">
         <v>1</v>
@@ -2767,15 +2767,15 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>119</v>
+        <v>522.2</v>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>534.8</v>
+        <v>28.94</v>
       </c>
       <c r="B293" t="n">
         <v>1</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>179.03</v>
+        <v>652.23</v>
       </c>
       <c r="B294" t="n">
         <v>1</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>179.23</v>
+        <v>166.48</v>
       </c>
       <c r="B295" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>56.35</v>
+        <v>229.98</v>
       </c>
       <c r="B296" t="n">
         <v>1</v>
@@ -2807,39 +2807,39 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>182</v>
+        <v>509.6</v>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>39.12</v>
+        <v>22.23</v>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>719.74</v>
+        <v>232.4</v>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>72.8</v>
+        <v>332.04</v>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>267.68</v>
+        <v>247.32</v>
       </c>
       <c r="B301" t="n">
         <v>1</v>
@@ -2847,15 +2847,15 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>128.88</v>
+        <v>108.77</v>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>218.59</v>
+        <v>167.79</v>
       </c>
       <c r="B303" t="n">
         <v>1</v>
@@ -2863,15 +2863,15 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>387.96</v>
+        <v>232.4</v>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>257.6</v>
+        <v>221.31</v>
       </c>
       <c r="B305" t="n">
         <v>1</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>273.83</v>
+        <v>373.35</v>
       </c>
       <c r="B306" t="n">
         <v>1</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>23.64</v>
+        <v>147.17</v>
       </c>
       <c r="B307" t="n">
         <v>1</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>427.04</v>
+        <v>79.34</v>
       </c>
       <c r="B308" t="n">
         <v>1</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>588.64</v>
+        <v>101.36</v>
       </c>
       <c r="B309" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>206.75</v>
+        <v>203.02</v>
       </c>
       <c r="B310" t="n">
         <v>1</v>
@@ -2919,47 +2919,47 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>123.18</v>
+        <v>193.59</v>
       </c>
       <c r="B311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>135.73</v>
+        <v>43.86</v>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>111.31</v>
+        <v>117.34</v>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>38.75</v>
+        <v>176</v>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>407.84</v>
+        <v>442.72</v>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>160.18</v>
+        <v>192.23</v>
       </c>
       <c r="B316" t="n">
         <v>1</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>194.65</v>
+        <v>81.2</v>
       </c>
       <c r="B317" t="n">
         <v>1</v>
@@ -2975,15 +2975,15 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>212.95</v>
+        <v>136.24</v>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>160.98</v>
+        <v>195.41</v>
       </c>
       <c r="B319" t="n">
         <v>1</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>197.12</v>
+        <v>232.4</v>
       </c>
       <c r="B320" t="n">
         <v>1</v>
@@ -2999,15 +2999,15 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>114.06</v>
+        <v>160.13</v>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>206.8</v>
+        <v>208.81</v>
       </c>
       <c r="B322" t="n">
         <v>1</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>165.07</v>
+        <v>191.17</v>
       </c>
       <c r="B323" t="n">
         <v>1</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>229.12</v>
+        <v>333.2</v>
       </c>
       <c r="B324" t="n">
         <v>1</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>149.44</v>
+        <v>345.04</v>
       </c>
       <c r="B325" t="n">
         <v>1</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>287.84</v>
+        <v>108.37</v>
       </c>
       <c r="B326" t="n">
         <v>1</v>
@@ -3047,15 +3047,15 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>391.97</v>
+        <v>769.97</v>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>97.08</v>
+        <v>137.85</v>
       </c>
       <c r="B328" t="n">
         <v>1</v>
@@ -3063,15 +3063,15 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>434</v>
+        <v>222.32</v>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>36.43</v>
+        <v>145.16</v>
       </c>
       <c r="B330" t="n">
         <v>1</v>
@@ -3079,15 +3079,15 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>291.95</v>
+        <v>50.71</v>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>112.7</v>
+        <v>82.66</v>
       </c>
       <c r="B332" t="n">
         <v>1</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>143.39</v>
+        <v>159.32</v>
       </c>
       <c r="B333" t="n">
         <v>0</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>208.66</v>
+        <v>146.72</v>
       </c>
       <c r="B334" t="n">
         <v>1</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>166.38</v>
+        <v>176.2</v>
       </c>
       <c r="B335" t="n">
         <v>1</v>
@@ -3119,23 +3119,23 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>369.69</v>
+        <v>168.59</v>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>89.62</v>
+        <v>813.97</v>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>475.28</v>
+        <v>127.42</v>
       </c>
       <c r="B338" t="n">
         <v>1</v>
@@ -3143,31 +3143,31 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>358.4</v>
+        <v>475.98</v>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>106.9</v>
+        <v>77.98</v>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>243.56</v>
+        <v>102.77</v>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>164.46</v>
+        <v>77.92</v>
       </c>
       <c r="B342" t="n">
         <v>1</v>
@@ -3175,15 +3175,15 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>522.2</v>
+        <v>173.58</v>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>28.94</v>
+        <v>139.66</v>
       </c>
       <c r="B344" t="n">
         <v>1</v>
@@ -3191,15 +3191,15 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>652.23</v>
+        <v>271.91</v>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>166.48</v>
+        <v>741.62</v>
       </c>
       <c r="B346" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>229.98</v>
+        <v>176.81</v>
       </c>
       <c r="B347" t="n">
         <v>1</v>
@@ -3215,23 +3215,23 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>509.6</v>
+        <v>175.3</v>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>22.23</v>
+        <v>607.97</v>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>232.4</v>
+        <v>501.18</v>
       </c>
       <c r="B350" t="n">
         <v>1</v>
@@ -3239,15 +3239,15 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>332.04</v>
+        <v>104.03</v>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>247.32</v>
+        <v>634</v>
       </c>
       <c r="B352" t="n">
         <v>1</v>
@@ -3255,15 +3255,15 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>108.77</v>
+        <v>76.36</v>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>167.79</v>
+        <v>96.52</v>
       </c>
       <c r="B354" t="n">
         <v>1</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>232.4</v>
+        <v>166.43</v>
       </c>
       <c r="B355" t="n">
         <v>1</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>221.31</v>
+        <v>257.6</v>
       </c>
       <c r="B356" t="n">
         <v>1</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>373.35</v>
+        <v>162.75</v>
       </c>
       <c r="B357" t="n">
         <v>1</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>147.17</v>
+        <v>284.9</v>
       </c>
       <c r="B358" t="n">
         <v>1</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>79.34</v>
+        <v>12.83</v>
       </c>
       <c r="B359" t="n">
         <v>1</v>
@@ -3311,417 +3311,9 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>101.36</v>
+        <v>236.68</v>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>203.02</v>
-      </c>
-      <c r="B361" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>193.59</v>
-      </c>
-      <c r="B362" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>43.86</v>
-      </c>
-      <c r="B363" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>117.34</v>
-      </c>
-      <c r="B364" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>176</v>
-      </c>
-      <c r="B365" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>442.72</v>
-      </c>
-      <c r="B366" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>192.23</v>
-      </c>
-      <c r="B367" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>81.2</v>
-      </c>
-      <c r="B368" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>136.24</v>
-      </c>
-      <c r="B369" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>195.41</v>
-      </c>
-      <c r="B370" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>232.4</v>
-      </c>
-      <c r="B371" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>160.13</v>
-      </c>
-      <c r="B372" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>208.81</v>
-      </c>
-      <c r="B373" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>191.17</v>
-      </c>
-      <c r="B374" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>333.2</v>
-      </c>
-      <c r="B375" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>345.04</v>
-      </c>
-      <c r="B376" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>108.37</v>
-      </c>
-      <c r="B377" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>769.97</v>
-      </c>
-      <c r="B378" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>137.85</v>
-      </c>
-      <c r="B379" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>222.32</v>
-      </c>
-      <c r="B380" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>145.16</v>
-      </c>
-      <c r="B381" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="B382" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>82.66</v>
-      </c>
-      <c r="B383" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>159.32</v>
-      </c>
-      <c r="B384" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>146.72</v>
-      </c>
-      <c r="B385" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="n">
-        <v>176.2</v>
-      </c>
-      <c r="B386" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="n">
-        <v>168.59</v>
-      </c>
-      <c r="B387" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="n">
-        <v>813.97</v>
-      </c>
-      <c r="B388" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
-        <v>127.42</v>
-      </c>
-      <c r="B389" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>475.98</v>
-      </c>
-      <c r="B390" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="n">
-        <v>77.98</v>
-      </c>
-      <c r="B391" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="n">
-        <v>102.77</v>
-      </c>
-      <c r="B392" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="B393" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="n">
-        <v>173.58</v>
-      </c>
-      <c r="B394" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="n">
-        <v>139.66</v>
-      </c>
-      <c r="B395" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="n">
-        <v>271.91</v>
-      </c>
-      <c r="B396" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="n">
-        <v>741.62</v>
-      </c>
-      <c r="B397" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="n">
-        <v>176.81</v>
-      </c>
-      <c r="B398" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="n">
-        <v>175.3</v>
-      </c>
-      <c r="B399" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="n">
-        <v>607.97</v>
-      </c>
-      <c r="B400" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="n">
-        <v>501.18</v>
-      </c>
-      <c r="B401" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="n">
-        <v>104.03</v>
-      </c>
-      <c r="B402" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="n">
-        <v>634</v>
-      </c>
-      <c r="B403" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="n">
-        <v>76.36</v>
-      </c>
-      <c r="B404" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="n">
-        <v>96.52</v>
-      </c>
-      <c r="B405" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="n">
-        <v>166.43</v>
-      </c>
-      <c r="B406" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="n">
-        <v>257.6</v>
-      </c>
-      <c r="B407" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="n">
-        <v>162.75</v>
-      </c>
-      <c r="B408" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="n">
-        <v>284.9</v>
-      </c>
-      <c r="B409" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="B410" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="n">
-        <v>236.68</v>
-      </c>
-      <c r="B411" t="n">
         <v>0</v>
       </c>
     </row>
